--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/AB/10/seed4/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/AB/10/seed4/result_data_RandomForest.xlsx
@@ -550,7 +550,7 @@
         <v>-22.82</v>
       </c>
       <c r="B7" t="n">
-        <v>4.908900000000001</v>
+        <v>5.188199999999999</v>
       </c>
       <c r="C7" t="n">
         <v>-11.52</v>
@@ -581,7 +581,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-21.97420000000001</v>
+        <v>-21.9494</v>
       </c>
       <c r="B9" t="n">
         <v>4.86</v>
@@ -635,7 +635,7 @@
         <v>-21.67</v>
       </c>
       <c r="B12" t="n">
-        <v>5.742599999999995</v>
+        <v>5.610699999999992</v>
       </c>
       <c r="C12" t="n">
         <v>-9.76</v>
@@ -734,7 +734,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-22.22530000000001</v>
+        <v>-22.26880000000001</v>
       </c>
       <c r="B18" t="n">
         <v>4.35</v>
@@ -768,7 +768,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-19.45649999999999</v>
+        <v>-19.37249999999998</v>
       </c>
       <c r="B20" t="n">
         <v>10.19</v>
@@ -873,7 +873,7 @@
         <v>-21.21</v>
       </c>
       <c r="B26" t="n">
-        <v>4.099300000000003</v>
+        <v>4.222200000000003</v>
       </c>
       <c r="C26" t="n">
         <v>-10.59</v>
@@ -887,10 +887,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-21.74789999999998</v>
+        <v>-21.65729999999997</v>
       </c>
       <c r="B27" t="n">
-        <v>5.165100000000007</v>
+        <v>4.940900000000002</v>
       </c>
       <c r="C27" t="n">
         <v>-11.92</v>
@@ -924,7 +924,7 @@
         <v>-21.48</v>
       </c>
       <c r="B29" t="n">
-        <v>4.901699999999996</v>
+        <v>5.1858</v>
       </c>
       <c r="C29" t="n">
         <v>-11.02</v>
@@ -1060,7 +1060,7 @@
         <v>-19.97</v>
       </c>
       <c r="B37" t="n">
-        <v>8.631700000000006</v>
+        <v>8.824500000000002</v>
       </c>
       <c r="C37" t="n">
         <v>-12.29</v>
@@ -1077,7 +1077,7 @@
         <v>-21.37</v>
       </c>
       <c r="B38" t="n">
-        <v>4.423300000000001</v>
+        <v>4.479100000000002</v>
       </c>
       <c r="C38" t="n">
         <v>-12.46</v>
@@ -1298,7 +1298,7 @@
         <v>-22</v>
       </c>
       <c r="B51" t="n">
-        <v>5.720100000000002</v>
+        <v>5.647699999999999</v>
       </c>
       <c r="C51" t="n">
         <v>-13.17</v>
@@ -1366,7 +1366,7 @@
         <v>-24</v>
       </c>
       <c r="B55" t="n">
-        <v>5.209199999999999</v>
+        <v>5.624299999999997</v>
       </c>
       <c r="C55" t="n">
         <v>-15.79</v>
@@ -1601,10 +1601,10 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.7033</v>
+        <v>-21.73259999999999</v>
       </c>
       <c r="B69" t="n">
-        <v>5.665799999999995</v>
+        <v>5.683199999999995</v>
       </c>
       <c r="C69" t="n">
         <v>-10.8</v>
@@ -1621,7 +1621,7 @@
         <v>-21.91</v>
       </c>
       <c r="B70" t="n">
-        <v>6.937500000000004</v>
+        <v>6.4555</v>
       </c>
       <c r="C70" t="n">
         <v>-9.9</v>
@@ -1720,7 +1720,7 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>-19.53339999999999</v>
+        <v>-19.56139999999998</v>
       </c>
       <c r="B76" t="n">
         <v>9.23</v>
@@ -1822,7 +1822,7 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>-21.98190000000001</v>
+        <v>-22.00249999999999</v>
       </c>
       <c r="B82" t="n">
         <v>5.26</v>
@@ -1842,7 +1842,7 @@
         <v>-22.74</v>
       </c>
       <c r="B83" t="n">
-        <v>5.470299999999998</v>
+        <v>5.438399999999997</v>
       </c>
       <c r="C83" t="n">
         <v>-13.03</v>
@@ -2165,7 +2165,7 @@
         <v>-20.36</v>
       </c>
       <c r="B102" t="n">
-        <v>8.041100000000005</v>
+        <v>8.552300000000004</v>
       </c>
       <c r="C102" t="n">
         <v>-12</v>
